--- a/model/план.xlsx
+++ b/model/план.xlsx
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9337" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9437" uniqueCount="1142">
   <si>
     <t>№ з/з</t>
   </si>
@@ -3490,9 +3490,6 @@
     <t>23-25.06 А</t>
   </si>
   <si>
-    <t>29-02.10</t>
-  </si>
-  <si>
     <t>18.09</t>
   </si>
   <si>
@@ -3505,15 +3502,9 @@
     <t>16-22.09</t>
   </si>
   <si>
-    <t>01-06.10</t>
-  </si>
-  <si>
     <t>10-15.09</t>
   </si>
   <si>
-    <t>23-28.09</t>
-  </si>
-  <si>
     <t>19-25.08</t>
   </si>
   <si>
@@ -3553,9 +3544,6 @@
     <t>26/гот.</t>
   </si>
   <si>
-    <t>11-16.09</t>
-  </si>
-  <si>
     <t>15-19.10</t>
   </si>
   <si>
@@ -3574,18 +3562,9 @@
     <t>25.08</t>
   </si>
   <si>
-    <t>24-01.10</t>
-  </si>
-  <si>
     <t>20-22.10</t>
   </si>
   <si>
-    <t>01-07.10</t>
-  </si>
-  <si>
-    <t>16-21.09</t>
-  </si>
-  <si>
     <t>07-12.10</t>
   </si>
   <si>
@@ -3610,45 +3589,18 @@
     <t>10-14.09</t>
   </si>
   <si>
-    <t>22-24.09</t>
-  </si>
-  <si>
-    <t>25-02.10</t>
-  </si>
-  <si>
     <t>21-22.09</t>
   </si>
   <si>
-    <t>28-01-10</t>
-  </si>
-  <si>
     <t>09-11.10 Н</t>
   </si>
   <si>
     <t>23-28.10</t>
   </si>
   <si>
-    <t>09-10.09</t>
-  </si>
-  <si>
     <t>18-23.09</t>
   </si>
   <si>
-    <t>22-25.09</t>
-  </si>
-  <si>
-    <t>04-10.09</t>
-  </si>
-  <si>
-    <t>08-16.09</t>
-  </si>
-  <si>
-    <t>16-24.09</t>
-  </si>
-  <si>
-    <t>29-05.10</t>
-  </si>
-  <si>
     <t>16-18.09</t>
   </si>
   <si>
@@ -3658,9 +3610,6 @@
     <t>06-12.10</t>
   </si>
   <si>
-    <t>24-28.09</t>
-  </si>
-  <si>
     <t>02-06.11</t>
   </si>
   <si>
@@ -3694,15 +3643,9 @@
     <t>23/23.09</t>
   </si>
   <si>
-    <t>28-05.10</t>
-  </si>
-  <si>
     <t>01-09.10</t>
   </si>
   <si>
-    <t>06-08.10</t>
-  </si>
-  <si>
     <t>10-14.10 А</t>
   </si>
   <si>
@@ -3715,21 +3658,12 @@
     <t>15-27.10 А</t>
   </si>
   <si>
-    <t>23-25.10 Х</t>
-  </si>
-  <si>
-    <t>17-21.10</t>
-  </si>
-  <si>
     <t>28-04.11 А</t>
   </si>
   <si>
     <t>28-04.11</t>
   </si>
   <si>
-    <t>02/05.10</t>
-  </si>
-  <si>
     <t>14/01.10</t>
   </si>
   <si>
@@ -3748,12 +3682,6 @@
     <t>16-21.10</t>
   </si>
   <si>
-    <t>30-02.10</t>
-  </si>
-  <si>
-    <t>05-13.10</t>
-  </si>
-  <si>
     <t>12-28.10</t>
   </si>
   <si>
@@ -3778,9 +3706,6 @@
     <t>18.11</t>
   </si>
   <si>
-    <t>17-21.09</t>
-  </si>
-  <si>
     <t>17-18.10 Н</t>
   </si>
   <si>
@@ -3796,9 +3721,6 @@
     <t>29-04.11</t>
   </si>
   <si>
-    <t>19-24.11</t>
-  </si>
-  <si>
     <t>18-20.11</t>
   </si>
   <si>
@@ -3817,13 +3739,76 @@
     <t>03-05.11 Н</t>
   </si>
   <si>
-    <t>09-16.11</t>
-  </si>
-  <si>
     <t>30-04.11</t>
   </si>
   <si>
     <t>13/02.11</t>
+  </si>
+  <si>
+    <t>1346 НМ</t>
+  </si>
+  <si>
+    <t>1344 НМ</t>
+  </si>
+  <si>
+    <t>1345 НМ</t>
+  </si>
+  <si>
+    <t>07-09.10</t>
+  </si>
+  <si>
+    <t>01-08.10</t>
+  </si>
+  <si>
+    <t>06-09.10</t>
+  </si>
+  <si>
+    <t>19-21.10</t>
+  </si>
+  <si>
+    <t>23-26.10</t>
+  </si>
+  <si>
+    <t>19.10 А</t>
+  </si>
+  <si>
+    <t>05-10.11</t>
+  </si>
+  <si>
+    <t>19-23.11</t>
+  </si>
+  <si>
+    <t>12-18.11</t>
+  </si>
+  <si>
+    <t>23-30.11</t>
+  </si>
+  <si>
+    <t>25-02.11 А</t>
+  </si>
+  <si>
+    <t>24-26.11</t>
+  </si>
+  <si>
+    <t>27-01.12</t>
+  </si>
+  <si>
+    <t>26-30.11</t>
+  </si>
+  <si>
+    <t>01-03.12</t>
+  </si>
+  <si>
+    <t>16-18.11</t>
+  </si>
+  <si>
+    <t>15-21.10</t>
+  </si>
+  <si>
+    <t>23-25.10 Н</t>
+  </si>
+  <si>
+    <t>28.10 А</t>
   </si>
 </sst>
 </file>
@@ -4338,11 +4323,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4356,26 +4356,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4385,10 +4370,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4404,9 +4389,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4414,6 +4396,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4732,55 +4717,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75">
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="63"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4793,15 +4778,15 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="56" t="s">
@@ -6891,55 +6876,14 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="L4:L5"/>
@@ -6956,14 +6900,55 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="A26:N26"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -6984,55 +6969,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75">
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="63"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -7045,15 +7030,15 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickBot="1">
       <c r="A6" s="56" t="s">
@@ -11817,6 +11802,120 @@
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="A100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="A76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="A90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
     <mergeCell ref="M129:N129"/>
     <mergeCell ref="M127:N127"/>
     <mergeCell ref="M128:N128"/>
@@ -11841,120 +11940,6 @@
     <mergeCell ref="M124:N124"/>
     <mergeCell ref="M113:N113"/>
     <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="A90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="A65:N65"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="A76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M79:N79"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -11977,64 +11962,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="63"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -12047,18 +12032,18 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" thickBot="1">
       <c r="A6" s="56" t="s">
@@ -16496,27 +16481,74 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P86:Q86"/>
@@ -16541,74 +16573,27 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P85:Q85"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -16646,65 +16631,65 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1"/>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="63"/>
+      <c r="Q4" s="68"/>
       <c r="R4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -16717,18 +16702,18 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
       <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" hidden="1" thickBot="1">
@@ -25906,10 +25891,10 @@
       <c r="O197" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P197" s="72">
+      <c r="P197" s="77">
         <v>43320</v>
       </c>
-      <c r="Q197" s="73"/>
+      <c r="Q197" s="78"/>
       <c r="R197" s="24">
         <v>43322</v>
       </c>
@@ -26014,10 +25999,10 @@
       <c r="O199" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P199" s="72">
+      <c r="P199" s="77">
         <v>43322</v>
       </c>
-      <c r="Q199" s="73"/>
+      <c r="Q199" s="78"/>
       <c r="R199" s="24">
         <v>43327</v>
       </c>
@@ -26232,10 +26217,10 @@
       <c r="O203" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P203" s="72">
+      <c r="P203" s="77">
         <v>43329</v>
       </c>
-      <c r="Q203" s="73"/>
+      <c r="Q203" s="78"/>
       <c r="R203" s="24">
         <v>43339</v>
       </c>
@@ -27453,8 +27438,8 @@
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
-      <c r="P228" s="77"/>
-      <c r="Q228" s="78"/>
+      <c r="P228" s="72"/>
+      <c r="Q228" s="73"/>
     </row>
     <row r="229" spans="1:18" ht="15.75" hidden="1" thickBot="1">
       <c r="A229" s="36">
@@ -27502,10 +27487,10 @@
       <c r="O229" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="P229" s="77">
+      <c r="P229" s="72">
         <v>43378</v>
       </c>
-      <c r="Q229" s="78"/>
+      <c r="Q229" s="73"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" hidden="1" thickBot="1">
       <c r="A230" s="36">
@@ -27553,10 +27538,10 @@
       <c r="O230" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="P230" s="77">
+      <c r="P230" s="72">
         <v>43378</v>
       </c>
-      <c r="Q230" s="78"/>
+      <c r="Q230" s="73"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" hidden="1" thickBot="1">
       <c r="A231" s="1">
@@ -28339,10 +28324,10 @@
       <c r="O246" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="P246" s="77">
+      <c r="P246" s="72">
         <v>43405</v>
       </c>
-      <c r="Q246" s="78"/>
+      <c r="Q246" s="73"/>
     </row>
     <row r="247" spans="1:17" ht="15.75" hidden="1" thickBot="1">
       <c r="A247" s="36">
@@ -28390,10 +28375,10 @@
       <c r="O247" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="P247" s="77">
+      <c r="P247" s="72">
         <v>43405</v>
       </c>
-      <c r="Q247" s="78"/>
+      <c r="Q247" s="73"/>
     </row>
     <row r="248" spans="1:17" ht="15.75" hidden="1" thickBot="1">
       <c r="A248" s="36">
@@ -28441,10 +28426,10 @@
       <c r="O248" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="P248" s="77">
+      <c r="P248" s="72">
         <v>43406</v>
       </c>
-      <c r="Q248" s="78"/>
+      <c r="Q248" s="73"/>
     </row>
     <row r="249" spans="1:17" ht="15.75" hidden="1" thickBot="1">
       <c r="A249" s="36">
@@ -28492,10 +28477,10 @@
       <c r="O249" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="P249" s="77">
+      <c r="P249" s="72">
         <v>43406</v>
       </c>
-      <c r="Q249" s="78"/>
+      <c r="Q249" s="73"/>
     </row>
     <row r="250" spans="1:17" ht="15.75" hidden="1" thickBot="1">
       <c r="A250" s="36">
@@ -28543,10 +28528,10 @@
       <c r="O250" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="P250" s="77">
+      <c r="P250" s="72">
         <v>43409</v>
       </c>
-      <c r="Q250" s="78"/>
+      <c r="Q250" s="73"/>
     </row>
     <row r="251" spans="1:17" ht="15.75" hidden="1" thickBot="1">
       <c r="A251" s="36">
@@ -28594,10 +28579,10 @@
       <c r="O251" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="P251" s="77">
+      <c r="P251" s="72">
         <v>43411</v>
       </c>
-      <c r="Q251" s="78"/>
+      <c r="Q251" s="73"/>
     </row>
     <row r="252" spans="1:17" ht="15.75" hidden="1" thickBot="1">
       <c r="A252" s="1">
@@ -29533,10 +29518,10 @@
       <c r="O270" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P270" s="77">
+      <c r="P270" s="72">
         <v>43437</v>
       </c>
-      <c r="Q270" s="78"/>
+      <c r="Q270" s="73"/>
     </row>
     <row r="271" spans="1:17" ht="15.75" thickBot="1">
       <c r="A271" s="36">
@@ -29584,10 +29569,10 @@
       <c r="O271" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="P271" s="77">
+      <c r="P271" s="72">
         <v>43439</v>
       </c>
-      <c r="Q271" s="78"/>
+      <c r="Q271" s="73"/>
     </row>
     <row r="272" spans="1:17" ht="15.75" thickBot="1">
       <c r="A272" s="36">
@@ -29635,10 +29620,10 @@
       <c r="O272" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P272" s="77">
+      <c r="P272" s="72">
         <v>43441</v>
       </c>
-      <c r="Q272" s="78"/>
+      <c r="Q272" s="73"/>
     </row>
     <row r="273" spans="1:17" ht="15.75" thickBot="1">
       <c r="A273" s="1">
@@ -30255,10 +30240,10 @@
       <c r="O286" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="P286" s="77">
+      <c r="P286" s="72">
         <v>43476</v>
       </c>
-      <c r="Q286" s="78"/>
+      <c r="Q286" s="73"/>
     </row>
     <row r="287" spans="1:17" ht="15.75" thickBot="1">
       <c r="A287" s="36">
@@ -30306,10 +30291,10 @@
       <c r="O287" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="P287" s="77">
+      <c r="P287" s="72">
         <v>43481</v>
       </c>
-      <c r="Q287" s="78"/>
+      <c r="Q287" s="73"/>
     </row>
     <row r="288" spans="1:17" ht="15.75" thickBot="1">
       <c r="A288" s="36">
@@ -30357,10 +30342,10 @@
       <c r="O288" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="P288" s="77">
+      <c r="P288" s="72">
         <v>43483</v>
       </c>
-      <c r="Q288" s="78"/>
+      <c r="Q288" s="73"/>
     </row>
     <row r="289" spans="1:17" ht="15.75" thickBot="1">
       <c r="A289" s="1">
@@ -30701,59 +30686,238 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="P296:Q296"/>
-    <mergeCell ref="P297:Q297"/>
-    <mergeCell ref="P298:Q298"/>
-    <mergeCell ref="P299:Q299"/>
-    <mergeCell ref="P278:Q278"/>
-    <mergeCell ref="P287:Q287"/>
-    <mergeCell ref="P288:Q288"/>
-    <mergeCell ref="P289:Q289"/>
-    <mergeCell ref="P290:Q290"/>
-    <mergeCell ref="P291:Q291"/>
-    <mergeCell ref="P292:Q292"/>
-    <mergeCell ref="P293:Q293"/>
-    <mergeCell ref="P294:Q294"/>
-    <mergeCell ref="P295:Q295"/>
-    <mergeCell ref="A285:Q285"/>
-    <mergeCell ref="P286:Q286"/>
-    <mergeCell ref="P279:Q279"/>
-    <mergeCell ref="P280:Q280"/>
-    <mergeCell ref="P281:Q281"/>
-    <mergeCell ref="P282:Q282"/>
-    <mergeCell ref="P283:Q283"/>
-    <mergeCell ref="P284:Q284"/>
-    <mergeCell ref="A269:Q269"/>
-    <mergeCell ref="P270:Q270"/>
-    <mergeCell ref="P271:Q271"/>
-    <mergeCell ref="P272:Q272"/>
-    <mergeCell ref="P273:Q273"/>
-    <mergeCell ref="P274:Q274"/>
-    <mergeCell ref="P275:Q275"/>
-    <mergeCell ref="P276:Q276"/>
-    <mergeCell ref="P277:Q277"/>
-    <mergeCell ref="P222:Q222"/>
-    <mergeCell ref="A227:Q227"/>
-    <mergeCell ref="P223:Q223"/>
-    <mergeCell ref="P224:Q224"/>
-    <mergeCell ref="P242:Q242"/>
-    <mergeCell ref="P226:Q226"/>
-    <mergeCell ref="P228:Q228"/>
-    <mergeCell ref="P229:Q229"/>
-    <mergeCell ref="P230:Q230"/>
-    <mergeCell ref="P231:Q231"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="P253:Q253"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="P244:Q244"/>
-    <mergeCell ref="P232:Q232"/>
-    <mergeCell ref="P233:Q233"/>
-    <mergeCell ref="P235:Q235"/>
-    <mergeCell ref="P225:Q225"/>
-    <mergeCell ref="P267:Q267"/>
-    <mergeCell ref="P266:Q266"/>
-    <mergeCell ref="P265:Q265"/>
-    <mergeCell ref="P243:Q243"/>
+    <mergeCell ref="P199:Q199"/>
+    <mergeCell ref="P200:Q200"/>
+    <mergeCell ref="P203:Q203"/>
+    <mergeCell ref="P219:Q219"/>
+    <mergeCell ref="P234:Q234"/>
+    <mergeCell ref="P236:Q236"/>
+    <mergeCell ref="P237:Q237"/>
+    <mergeCell ref="P240:Q240"/>
+    <mergeCell ref="P241:Q241"/>
+    <mergeCell ref="P205:Q205"/>
+    <mergeCell ref="P209:Q209"/>
+    <mergeCell ref="A210:Q210"/>
+    <mergeCell ref="P211:Q211"/>
+    <mergeCell ref="P213:Q213"/>
+    <mergeCell ref="P220:Q220"/>
+    <mergeCell ref="P201:Q201"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="P207:Q207"/>
+    <mergeCell ref="P212:Q212"/>
+    <mergeCell ref="P214:Q214"/>
+    <mergeCell ref="P216:Q216"/>
+    <mergeCell ref="P202:Q202"/>
+    <mergeCell ref="P217:Q217"/>
+    <mergeCell ref="P187:Q187"/>
+    <mergeCell ref="P192:Q192"/>
+    <mergeCell ref="P198:Q198"/>
+    <mergeCell ref="P195:Q195"/>
+    <mergeCell ref="P190:Q190"/>
+    <mergeCell ref="P196:Q196"/>
+    <mergeCell ref="A191:Q191"/>
+    <mergeCell ref="P197:Q197"/>
+    <mergeCell ref="P188:Q188"/>
+    <mergeCell ref="P193:Q193"/>
+    <mergeCell ref="P194:Q194"/>
+    <mergeCell ref="P189:Q189"/>
+    <mergeCell ref="A176:Q176"/>
+    <mergeCell ref="P177:Q177"/>
+    <mergeCell ref="P179:Q179"/>
+    <mergeCell ref="P180:Q180"/>
+    <mergeCell ref="P184:Q184"/>
+    <mergeCell ref="P185:Q185"/>
+    <mergeCell ref="P186:Q186"/>
+    <mergeCell ref="P178:Q178"/>
+    <mergeCell ref="P181:Q181"/>
+    <mergeCell ref="P182:Q182"/>
+    <mergeCell ref="P183:Q183"/>
+    <mergeCell ref="P162:Q162"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="P167:Q167"/>
+    <mergeCell ref="P170:Q170"/>
+    <mergeCell ref="P171:Q171"/>
+    <mergeCell ref="P172:Q172"/>
+    <mergeCell ref="P169:Q169"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="P166:Q166"/>
+    <mergeCell ref="P168:Q168"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P173:Q173"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:Q67"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:Q127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A121:Q121"/>
+    <mergeCell ref="A138:Q138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="P175:Q175"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:Q148"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="P152:Q152"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="P154:Q154"/>
+    <mergeCell ref="P155:Q155"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="P156:Q156"/>
+    <mergeCell ref="A164:Q164"/>
+    <mergeCell ref="P174:Q174"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="P159:Q159"/>
+    <mergeCell ref="P160:Q160"/>
+    <mergeCell ref="P161:Q161"/>
     <mergeCell ref="P221:Q221"/>
     <mergeCell ref="P208:Q208"/>
     <mergeCell ref="P215:Q215"/>
@@ -30778,238 +30942,59 @@
     <mergeCell ref="P260:Q260"/>
     <mergeCell ref="P261:Q261"/>
     <mergeCell ref="P262:Q262"/>
-    <mergeCell ref="P175:Q175"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:Q148"/>
-    <mergeCell ref="P149:Q149"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="P151:Q151"/>
-    <mergeCell ref="P152:Q152"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="P154:Q154"/>
-    <mergeCell ref="P155:Q155"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="P156:Q156"/>
-    <mergeCell ref="A164:Q164"/>
-    <mergeCell ref="P174:Q174"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="P159:Q159"/>
-    <mergeCell ref="P160:Q160"/>
-    <mergeCell ref="P161:Q161"/>
-    <mergeCell ref="A138:Q138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:Q127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A121:Q121"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:Q67"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P173:Q173"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P162:Q162"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="P167:Q167"/>
-    <mergeCell ref="P170:Q170"/>
-    <mergeCell ref="P171:Q171"/>
-    <mergeCell ref="P172:Q172"/>
-    <mergeCell ref="P169:Q169"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="P166:Q166"/>
-    <mergeCell ref="P168:Q168"/>
-    <mergeCell ref="A176:Q176"/>
-    <mergeCell ref="P177:Q177"/>
-    <mergeCell ref="P179:Q179"/>
-    <mergeCell ref="P180:Q180"/>
-    <mergeCell ref="P184:Q184"/>
-    <mergeCell ref="P185:Q185"/>
-    <mergeCell ref="P186:Q186"/>
-    <mergeCell ref="P178:Q178"/>
-    <mergeCell ref="P181:Q181"/>
-    <mergeCell ref="P182:Q182"/>
-    <mergeCell ref="P183:Q183"/>
-    <mergeCell ref="P187:Q187"/>
-    <mergeCell ref="P192:Q192"/>
-    <mergeCell ref="P198:Q198"/>
-    <mergeCell ref="P195:Q195"/>
-    <mergeCell ref="P190:Q190"/>
-    <mergeCell ref="P196:Q196"/>
-    <mergeCell ref="A191:Q191"/>
-    <mergeCell ref="P197:Q197"/>
-    <mergeCell ref="P188:Q188"/>
-    <mergeCell ref="P193:Q193"/>
-    <mergeCell ref="P194:Q194"/>
-    <mergeCell ref="P189:Q189"/>
-    <mergeCell ref="P199:Q199"/>
-    <mergeCell ref="P200:Q200"/>
-    <mergeCell ref="P203:Q203"/>
-    <mergeCell ref="P219:Q219"/>
-    <mergeCell ref="P234:Q234"/>
-    <mergeCell ref="P236:Q236"/>
-    <mergeCell ref="P237:Q237"/>
-    <mergeCell ref="P240:Q240"/>
-    <mergeCell ref="P241:Q241"/>
-    <mergeCell ref="P205:Q205"/>
-    <mergeCell ref="P209:Q209"/>
-    <mergeCell ref="A210:Q210"/>
-    <mergeCell ref="P211:Q211"/>
-    <mergeCell ref="P213:Q213"/>
-    <mergeCell ref="P220:Q220"/>
-    <mergeCell ref="P201:Q201"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="P207:Q207"/>
-    <mergeCell ref="P212:Q212"/>
-    <mergeCell ref="P214:Q214"/>
-    <mergeCell ref="P216:Q216"/>
-    <mergeCell ref="P202:Q202"/>
-    <mergeCell ref="P217:Q217"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="P253:Q253"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="P244:Q244"/>
+    <mergeCell ref="P232:Q232"/>
+    <mergeCell ref="P233:Q233"/>
+    <mergeCell ref="P235:Q235"/>
+    <mergeCell ref="P225:Q225"/>
+    <mergeCell ref="P267:Q267"/>
+    <mergeCell ref="P266:Q266"/>
+    <mergeCell ref="P265:Q265"/>
+    <mergeCell ref="P243:Q243"/>
+    <mergeCell ref="P222:Q222"/>
+    <mergeCell ref="A227:Q227"/>
+    <mergeCell ref="P223:Q223"/>
+    <mergeCell ref="P224:Q224"/>
+    <mergeCell ref="P242:Q242"/>
+    <mergeCell ref="P226:Q226"/>
+    <mergeCell ref="P228:Q228"/>
+    <mergeCell ref="P229:Q229"/>
+    <mergeCell ref="P230:Q230"/>
+    <mergeCell ref="P231:Q231"/>
+    <mergeCell ref="A269:Q269"/>
+    <mergeCell ref="P270:Q270"/>
+    <mergeCell ref="P271:Q271"/>
+    <mergeCell ref="P272:Q272"/>
+    <mergeCell ref="P273:Q273"/>
+    <mergeCell ref="P274:Q274"/>
+    <mergeCell ref="P275:Q275"/>
+    <mergeCell ref="P276:Q276"/>
+    <mergeCell ref="P277:Q277"/>
+    <mergeCell ref="P296:Q296"/>
+    <mergeCell ref="P297:Q297"/>
+    <mergeCell ref="P298:Q298"/>
+    <mergeCell ref="P299:Q299"/>
+    <mergeCell ref="P278:Q278"/>
+    <mergeCell ref="P287:Q287"/>
+    <mergeCell ref="P288:Q288"/>
+    <mergeCell ref="P289:Q289"/>
+    <mergeCell ref="P290:Q290"/>
+    <mergeCell ref="P291:Q291"/>
+    <mergeCell ref="P292:Q292"/>
+    <mergeCell ref="P293:Q293"/>
+    <mergeCell ref="P294:Q294"/>
+    <mergeCell ref="P295:Q295"/>
+    <mergeCell ref="A285:Q285"/>
+    <mergeCell ref="P286:Q286"/>
+    <mergeCell ref="P279:Q279"/>
+    <mergeCell ref="P280:Q280"/>
+    <mergeCell ref="P281:Q281"/>
+    <mergeCell ref="P282:Q282"/>
+    <mergeCell ref="P283:Q283"/>
+    <mergeCell ref="P284:Q284"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -31046,62 +31031,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="41"/>
       <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="61" t="s">
         <v>800</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="61" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="81" t="s">
         <v>777</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="61" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="79" t="s">
@@ -31109,7 +31094,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -31122,18 +31107,18 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="82"/>
-      <c r="Q4" s="61"/>
+      <c r="Q4" s="62"/>
       <c r="R4" s="80"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" hidden="1" thickBot="1">
@@ -36320,21 +36305,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A61:R61"/>
-    <mergeCell ref="A70:R70"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="A53:R53"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A98:R98"/>
     <mergeCell ref="A103:R103"/>
     <mergeCell ref="A105:R105"/>
@@ -36351,6 +36321,21 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A22:R22"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="A70:R70"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A53:R53"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -36359,10 +36344,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36383,62 +36368,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="45"/>
       <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:18" s="44" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="71"/>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="71"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="61" t="s">
         <v>800</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="61" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="81" t="s">
         <v>777</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="61" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="81" t="s">
@@ -39086,26 +39071,26 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="44" customFormat="1" ht="16.5" hidden="1" thickBot="1">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="87"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="86"/>
     </row>
     <row r="56" spans="1:19" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="50">
@@ -40599,7 +40584,7 @@
         <v>15</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="P83" s="13" t="s">
         <v>867</v>
@@ -40658,7 +40643,7 @@
         <v>15</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="P84" s="13" t="s">
         <v>604</v>
@@ -40696,16 +40681,16 @@
         <v>15</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="L85" s="13" t="s">
         <v>15</v>
@@ -40714,13 +40699,13 @@
         <v>15</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="O85" s="13" t="s">
         <v>16</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Q85" s="13" t="s">
         <v>606</v>
@@ -40746,16 +40731,16 @@
         <v>15</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>16</v>
@@ -40764,7 +40749,7 @@
         <v>16</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="L86" s="13" t="s">
         <v>15</v>
@@ -40779,7 +40764,7 @@
         <v>16</v>
       </c>
       <c r="P86" s="13" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="Q86" s="13" t="s">
         <v>391</v>
@@ -40791,7 +40776,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="16.5" thickBot="1">
+    <row r="87" spans="1:19" ht="16.5" hidden="1" thickBot="1">
       <c r="A87" s="56" t="s">
         <v>92</v>
       </c>
@@ -40981,7 +40966,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" thickBot="1">
+    <row r="91" spans="1:19" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="36">
         <v>1322</v>
       </c>
@@ -41037,7 +41022,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" thickBot="1">
+    <row r="92" spans="1:19" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="36">
         <v>1320</v>
       </c>
@@ -41069,7 +41054,7 @@
         <v>15</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="L92" s="13" t="s">
         <v>16</v>
@@ -41084,7 +41069,7 @@
         <v>15</v>
       </c>
       <c r="P92" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Q92" s="13" t="s">
         <v>165</v>
@@ -41093,7 +41078,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" thickBot="1">
+    <row r="93" spans="1:19" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="36">
         <v>1321</v>
       </c>
@@ -41107,25 +41092,25 @@
         <v>15</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>367</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="L93" s="13" t="s">
         <v>16</v>
@@ -41134,13 +41119,13 @@
         <v>16</v>
       </c>
       <c r="N93" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P93" s="13" t="s">
         <v>1036</v>
-      </c>
-      <c r="O93" s="13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="P93" s="13" t="s">
-        <v>1037</v>
       </c>
       <c r="Q93" s="13" t="s">
         <v>161</v>
@@ -41152,7 +41137,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1">
+    <row r="94" spans="1:19" ht="15.75" hidden="1" thickBot="1">
       <c r="A94" s="36">
         <v>1317</v>
       </c>
@@ -41163,43 +41148,43 @@
         <v>15</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>397</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="J94" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="O94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94" s="13" t="s">
         <v>1082</v>
-      </c>
-      <c r="K94" s="13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L94" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M94" s="13" t="s">
-        <v>1098</v>
-      </c>
-      <c r="N94" s="13" t="s">
-        <v>1102</v>
-      </c>
-      <c r="O94" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P94" s="13" t="s">
-        <v>1099</v>
       </c>
       <c r="Q94" s="13" t="s">
         <v>163</v>
@@ -41241,31 +41226,31 @@
         <v>15</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1084</v>
+        <v>15</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>618</v>
+        <v>15</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>1075</v>
+        <v>15</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>1037</v>
+        <v>15</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1042</v>
+        <v>15</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>1078</v>
+        <v>15</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>1091</v>
+        <v>15</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>1091</v>
+        <v>15</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>1103</v>
+        <v>15</v>
       </c>
       <c r="L96" s="13" t="s">
         <v>16</v>
@@ -41274,16 +41259,16 @@
         <v>16</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="P96" s="13" t="s">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="Q96" s="13" t="s">
-        <v>387</v>
+        <v>15</v>
       </c>
       <c r="R96" s="39">
         <v>44109</v>
@@ -41300,31 +41285,31 @@
         <v>15</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>1085</v>
+        <v>15</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>1076</v>
+        <v>15</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>1040</v>
+        <v>15</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>1124</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>1087</v>
+        <v>15</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>1087</v>
+        <v>15</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="L97" s="13" t="s">
         <v>16</v>
@@ -41333,10 +41318,10 @@
         <v>16</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>1114</v>
+        <v>210</v>
       </c>
       <c r="O97" s="13" t="s">
-        <v>387</v>
+        <v>15</v>
       </c>
       <c r="P97" s="13" t="s">
         <v>177</v>
@@ -41353,34 +41338,34 @@
         <v>1331</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1059</v>
+        <v>15</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>174</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>174</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>1105</v>
+        <v>15</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="L98" s="13" t="s">
         <v>16</v>
@@ -41409,16 +41394,16 @@
     </row>
     <row r="99" spans="1:19" ht="15.75" thickBot="1">
       <c r="A99" s="36" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>1066</v>
+        <v>15</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>616</v>
+        <v>15</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>16</v>
@@ -41469,10 +41454,10 @@
         <v>1328</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>1081</v>
+        <v>15</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1086</v>
+        <v>15</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>388</v>
@@ -41484,28 +41469,28 @@
         <v>177</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="J100" s="13" t="s">
-        <v>429</v>
+        <v>1069</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>1069</v>
       </c>
       <c r="K100" s="13" t="s">
         <v>173</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="N100" s="13" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="O100" s="13" t="s">
         <v>16</v>
@@ -41514,7 +41499,7 @@
         <v>173</v>
       </c>
       <c r="Q100" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="R100" s="39">
         <v>44119</v>
@@ -41525,10 +41510,10 @@
         <v>1332</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>1056</v>
+        <v>15</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>376</v>
+        <v>15</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>495</v>
@@ -41540,19 +41525,19 @@
         <v>189</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>491</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>684</v>
+        <v>409</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>684</v>
+        <v>173</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="L101" s="13" t="s">
         <v>16</v>
@@ -41587,31 +41572,31 @@
         <v>15</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1131</v>
+        <v>15</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G102" s="12" t="s">
-        <v>180</v>
+      <c r="G102" s="13" t="s">
+        <v>1128</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="J102" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="L102" s="13" t="s">
         <v>16</v>
@@ -41620,10 +41605,10 @@
         <v>16</v>
       </c>
       <c r="N102" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="P102" s="13" t="s">
         <v>191</v>
@@ -41656,19 +41641,19 @@
         <v>16</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="I103" s="13" t="s">
         <v>191</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>1110</v>
+        <v>1140</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="L103" s="13" t="s">
         <v>16</v>
@@ -41686,294 +41671,325 @@
         <v>192</v>
       </c>
       <c r="Q103" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="R103" s="39">
         <v>44132</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A104" s="36">
+      <c r="A104" s="36" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q104" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="R104" s="39">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A105" s="36" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q105" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="R105" s="39">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A106" s="36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q106" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="R106" s="39">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A107" s="36">
         <v>1333</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="B107" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="E107" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F107" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G104" s="13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H104" s="13" t="s">
+      <c r="G107" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H107" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="I104" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K104" s="13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M104" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N104" s="13" t="s">
-        <v>1116</v>
-      </c>
-      <c r="O104" s="13" t="s">
+      <c r="I107" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N107" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O107" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="P104" s="13" t="s">
-        <v>1052</v>
-      </c>
-      <c r="Q104" s="13" t="s">
+      <c r="P107" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q107" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="R104" s="39">
+      <c r="R107" s="39">
         <v>44134</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A105" s="36">
-        <v>1326</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="M105" s="13" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N105" s="13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O105" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P105" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q105" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="R105" s="39">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A106" s="36">
-        <v>1341</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="13" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M106" s="13" t="s">
-        <v>1123</v>
-      </c>
-      <c r="N106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P106" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q106" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="R106" s="39">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A107" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="57"/>
-      <c r="O107" s="57"/>
-      <c r="P107" s="57"/>
-      <c r="Q107" s="57"/>
-      <c r="R107" s="58"/>
     </row>
     <row r="108" spans="1:19" ht="15.75" thickBot="1">
       <c r="A108" s="36">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>1091</v>
+        <v>15</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1065</v>
+        <v>15</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>416</v>
+        <v>191</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>468</v>
+        <v>1068</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>416</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>1068</v>
+        <v>468</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>1080</v>
+        <v>468</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>1069</v>
+        <v>16</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>1094</v>
+        <v>16</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>1112</v>
+        <v>16</v>
       </c>
       <c r="L108" s="13" t="s">
-        <v>16</v>
+        <v>427</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>16</v>
+        <v>1047</v>
       </c>
       <c r="N108" s="13" t="s">
-        <v>201</v>
+        <v>1037</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="P108" s="13" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="Q108" s="13" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="R108" s="39">
-        <v>44140</v>
-      </c>
-      <c r="S108" s="43">
-        <v>44141</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="15.75" thickBot="1">
       <c r="A109" s="36">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>1101</v>
+        <v>16</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1090</v>
+        <v>16</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>1068</v>
+        <v>16</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1092</v>
+        <v>1141</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>1093</v>
+        <v>16</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>1095</v>
+        <v>191</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>691</v>
+        <v>643</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>1113</v>
+        <v>1049</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>16</v>
@@ -41982,222 +41998,191 @@
         <v>16</v>
       </c>
       <c r="N109" s="13" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="P109" s="13" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="Q109" s="13" t="s">
-        <v>221</v>
+        <v>647</v>
       </c>
       <c r="R109" s="39">
-        <v>44145</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="15.75" thickBot="1">
       <c r="A110" s="36">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>485</v>
+        <v>16</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>639</v>
+        <v>16</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J110" s="12" t="s">
-        <v>1145</v>
+        <v>16</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>1140</v>
+        <v>16</v>
       </c>
       <c r="L110" s="13" t="s">
-        <v>16</v>
+        <v>1099</v>
       </c>
       <c r="M110" s="13" t="s">
-        <v>16</v>
+        <v>1099</v>
       </c>
       <c r="N110" s="13" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="P110" s="13" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="Q110" s="13" t="s">
-        <v>463</v>
+        <v>647</v>
       </c>
       <c r="R110" s="39">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A111" s="36">
-        <v>1338</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="J111" s="13" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K111" s="13" t="s">
-        <v>1126</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M111" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N111" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="O111" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="P111" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q111" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="R111" s="39">
-        <v>44153</v>
-      </c>
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A111" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="57"/>
+      <c r="M111" s="57"/>
+      <c r="N111" s="57"/>
+      <c r="O111" s="57"/>
+      <c r="P111" s="57"/>
+      <c r="Q111" s="57"/>
+      <c r="R111" s="58"/>
     </row>
     <row r="112" spans="1:19" ht="15.75" thickBot="1">
       <c r="A112" s="36">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1134</v>
+        <v>15</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>642</v>
+        <v>416</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>1129</v>
+        <v>468</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>470</v>
+        <v>416</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>1061</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>1144</v>
+        <v>1070</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>218</v>
+        <v>1062</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>694</v>
+        <v>1077</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>1141</v>
+        <v>1091</v>
       </c>
       <c r="L112" s="13" t="s">
-        <v>1117</v>
+        <v>16</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>1118</v>
+        <v>16</v>
       </c>
       <c r="N112" s="13" t="s">
-        <v>1146</v>
+        <v>201</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="P112" s="13" t="s">
-        <v>697</v>
+        <v>644</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="R112" s="39">
-        <v>44155</v>
+        <v>44140</v>
+      </c>
+      <c r="S112" s="43">
+        <v>44141</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="15.75" thickBot="1">
       <c r="A113" s="36">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>1135</v>
+        <v>1074</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>627</v>
+        <v>1049</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>697</v>
+        <v>1061</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>463</v>
+        <v>1049</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>1138</v>
+        <v>1075</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>454</v>
+        <v>1076</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>1124</v>
+        <v>1078</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>1127</v>
+        <v>1092</v>
       </c>
       <c r="L113" s="13" t="s">
         <v>16</v>
@@ -42206,100 +42191,572 @@
         <v>16</v>
       </c>
       <c r="N113" s="13" t="s">
-        <v>1130</v>
+        <v>417</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>1130</v>
+        <v>417</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>499</v>
+        <v>642</v>
       </c>
       <c r="Q113" s="13" t="s">
-        <v>509</v>
+        <v>221</v>
       </c>
       <c r="R113" s="39">
-        <v>44161</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="15.75" thickBot="1">
       <c r="A114" s="36">
+        <v>1342</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="O114" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="P114" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q114" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="R114" s="39">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A115" s="36">
+        <v>1338</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L115" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N115" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="O115" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="P115" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q115" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="R115" s="39">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A116" s="36">
+        <v>1335</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J116" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L116" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M116" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N116" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O116" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P116" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q116" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="R116" s="39">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A117" s="36">
+        <v>1348</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N117" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O117" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P117" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q117" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="R117" s="39">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A118" s="36">
+        <v>1339</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N118" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P118" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q118" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="R118" s="39">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A119" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="57"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
+      <c r="L119" s="57"/>
+      <c r="M119" s="57"/>
+      <c r="N119" s="57"/>
+      <c r="O119" s="57"/>
+      <c r="P119" s="57"/>
+      <c r="Q119" s="57"/>
+      <c r="R119" s="58"/>
+    </row>
+    <row r="120" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A120" s="36">
         <v>1340</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C114" s="13" t="s">
+      <c r="B120" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>1136</v>
       </c>
-      <c r="D114" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="E114" s="13" t="s">
+      <c r="H120" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N120" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="P120" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q120" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="R120" s="39">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A121" s="36"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="39"/>
+    </row>
+    <row r="122" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A122" s="36">
+        <v>1347</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="G122" s="13" t="s">
         <v>1137</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="J114" s="13" t="s">
-        <v>1138</v>
-      </c>
-      <c r="K114" s="13" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L114" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M114" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N114" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="O114" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="P114" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q114" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="R114" s="39">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A115" s="36"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="39"/>
+      <c r="H122" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L122" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M122" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N122" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="O122" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="P122" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q122" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="R122" s="39">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A123" s="36"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+      <c r="O123" s="13"/>
+      <c r="P123" s="13"/>
+      <c r="Q123" s="13"/>
+      <c r="R123" s="39"/>
+    </row>
+    <row r="124" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A124" s="36"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="13"/>
+      <c r="R124" s="39"/>
+    </row>
+    <row r="125" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A125" s="36"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="O125" s="13"/>
+      <c r="P125" s="13"/>
+      <c r="Q125" s="13"/>
+      <c r="R125" s="39"/>
+    </row>
+    <row r="126" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A126" s="36"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+      <c r="R126" s="39"/>
+    </row>
+    <row r="127" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A127" s="36"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A107:R107"/>
+  <mergeCells count="30">
+    <mergeCell ref="A119:R119"/>
+    <mergeCell ref="A43:R43"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A111:R111"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="Q3:Q4"/>
@@ -42315,19 +42772,6 @@
     <mergeCell ref="A76:R76"/>
     <mergeCell ref="A55:R55"/>
     <mergeCell ref="A64:R64"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A43:R43"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
